--- a/biology/Botanique/Dalbergia_boehmii/Dalbergia_boehmii.xlsx
+++ b/biology/Botanique/Dalbergia_boehmii/Dalbergia_boehmii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalbergia boehmii est une espèce de plantes de la famille des Fabaceae et du genre Dalbergia, présente en Afrique tropicale[2].
-Son épithète spécifique boehmii rend hommage au naturaliste allemand Richard Böhm, explorateur de l'Afrique centrale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalbergia boehmii est une espèce de plantes de la famille des Fabaceae et du genre Dalbergia, présente en Afrique tropicale.
+Son épithète spécifique boehmii rend hommage au naturaliste allemand Richard Böhm, explorateur de l'Afrique centrale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre (ou arbuste) à fleurs blanches, d'une hauteur comprise entre 4 et 10 m[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre (ou arbuste) à fleurs blanches, d'une hauteur comprise entre 4 et 10 m.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de l'ouest (Sénégal) à l'est, également vers le sud[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de l'ouest (Sénégal) à l'est, également vers le sud.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans une grande variété de zones arborescentes, dans les forêts décidues ou non, le long des cours d'eau, parfois en touffes, à une altitude comprise entre 0 et 1 720 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans une grande variété de zones arborescentes, dans les forêts décidues ou non, le long des cours d'eau, parfois en touffes, à une altitude comprise entre 0 et 1 720 m.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 juin 2020)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 juin 2020) :
 sous-espèce Dalbergia boehmii subsp. boehmii
 sous-espèce Dalbergia boehmii subsp. stuhlmannii
-Selon The Plant List            (22 juin 2020)[1] :
+Selon The Plant List            (22 juin 2020) :
 sous-espèce Dalbergia boehmii subsp. stuhlmannii (Taub.) Polhill
-Selon Tropicos                                           (22 juin 2020)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Dalbergia boehmii subsp. boehmii
 sous-espèce Dalbergia boehmii subsp. stuhlmannii (Taub.) Polhill</t>
         </is>
